--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdalattar/grade-inquiry-app/grade-inquiry-app/student-grade-app/student-grade-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844F1872-871E-EA49-ACE8-90F29A7400DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A84F4-3FAF-2E4A-8C60-4E417DF259C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{8B6F05B0-A061-F448-B369-43EA7F7A95D4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -98,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,16 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A5B46E-F4CF-CC47-B75D-0AB75669BF05}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -457,7 +467,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>123</v>
       </c>
       <c r="B2" t="s">
@@ -471,7 +481,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>3455</v>
       </c>
       <c r="B3" t="s">
@@ -482,6 +492,17 @@
       </c>
       <c r="D3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>288121300048</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdalattar/grade-inquiry-app/grade-inquiry-app/student-grade-app/student-grade-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A84F4-3FAF-2E4A-8C60-4E417DF259C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9194029-286D-044D-83E5-F75DF0B5AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{8B6F05B0-A061-F448-B369-43EA7F7A95D4}"/>
   </bookViews>
@@ -106,7 +106,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
